--- a/docs/certificate/GPA.xlsx
+++ b/docs/certificate/GPA.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jtan1995/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3EA2B6-5931-E847-92AB-DD969D15FC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6FDF26-72C7-E341-8731-6E83D903C33C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22280" yWindow="1820" windowWidth="28800" windowHeight="16180" xr2:uid="{41D70B99-B963-0F4F-ACEE-960A91DA7C9B}"/>
+    <workbookView xWindow="-23880" yWindow="1820" windowWidth="23880" windowHeight="16180" xr2:uid="{41D70B99-B963-0F4F-ACEE-960A91DA7C9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -123,19 +123,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>总成绩GPA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>专业成绩CPA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>课程名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>学科成绩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所修所有学科GPA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s所修专业学科CPA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -207,26 +207,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -545,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFD5DEFA-6E65-5C46-84CE-21CF2F5440B2}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -556,20 +553,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="44" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="A1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
@@ -592,11 +589,11 @@
         <v>3</v>
       </c>
       <c r="D3" s="1">
-        <f>B3/10-5</f>
+        <f t="shared" ref="D3:D13" si="0">B3/10-5</f>
         <v>4.1999999999999993</v>
       </c>
       <c r="E3" s="1">
-        <f>D3*C3</f>
+        <f t="shared" ref="E3:E13" si="1">D3*C3</f>
         <v>12.599999999999998</v>
       </c>
     </row>
@@ -611,11 +608,11 @@
         <v>3</v>
       </c>
       <c r="D4" s="1">
-        <f>B4/10-5</f>
+        <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
       <c r="E4" s="1">
-        <f>D4*C4</f>
+        <f t="shared" si="1"/>
         <v>10.5</v>
       </c>
     </row>
@@ -630,11 +627,11 @@
         <v>3</v>
       </c>
       <c r="D5" s="1">
-        <f>B5/10-5</f>
+        <f t="shared" si="0"/>
         <v>3.6999999999999993</v>
       </c>
       <c r="E5" s="1">
-        <f>D5*C5</f>
+        <f t="shared" si="1"/>
         <v>11.099999999999998</v>
       </c>
     </row>
@@ -649,11 +646,11 @@
         <v>3</v>
       </c>
       <c r="D6" s="1">
-        <f>B6/10-5</f>
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
       <c r="E6" s="1">
-        <f>D6*C6</f>
+        <f t="shared" si="1"/>
         <v>13.5</v>
       </c>
     </row>
@@ -668,11 +665,11 @@
         <v>3</v>
       </c>
       <c r="D7" s="1">
-        <f>B7/10-5</f>
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
       <c r="E7" s="1">
-        <f>D7*C7</f>
+        <f t="shared" si="1"/>
         <v>13.5</v>
       </c>
     </row>
@@ -687,11 +684,11 @@
         <v>3</v>
       </c>
       <c r="D8" s="1">
-        <f>B8/10-5</f>
+        <f t="shared" si="0"/>
         <v>3.9000000000000004</v>
       </c>
       <c r="E8" s="1">
-        <f>D8*C8</f>
+        <f t="shared" si="1"/>
         <v>11.700000000000001</v>
       </c>
     </row>
@@ -706,11 +703,11 @@
         <v>3</v>
       </c>
       <c r="D9" s="1">
-        <f>B9/10-5</f>
+        <f t="shared" si="0"/>
         <v>4.1999999999999993</v>
       </c>
       <c r="E9" s="1">
-        <f>D9*C9</f>
+        <f t="shared" si="1"/>
         <v>12.599999999999998</v>
       </c>
     </row>
@@ -725,11 +722,11 @@
         <v>3</v>
       </c>
       <c r="D10" s="1">
-        <f>B10/10-5</f>
+        <f t="shared" si="0"/>
         <v>4.3000000000000007</v>
       </c>
       <c r="E10" s="1">
-        <f>D10*C10</f>
+        <f t="shared" si="1"/>
         <v>12.900000000000002</v>
       </c>
     </row>
@@ -744,11 +741,11 @@
         <v>3</v>
       </c>
       <c r="D11" s="1">
-        <f>B11/10-5</f>
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
       <c r="E11" s="1">
-        <f>D11*C11</f>
+        <f t="shared" si="1"/>
         <v>13.5</v>
       </c>
     </row>
@@ -763,11 +760,11 @@
         <v>3</v>
       </c>
       <c r="D12" s="1">
-        <f>B12/10-5</f>
+        <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
       <c r="E12" s="1">
-        <f>D12*C12</f>
+        <f t="shared" si="1"/>
         <v>10.5</v>
       </c>
     </row>
@@ -782,11 +779,11 @@
         <v>3</v>
       </c>
       <c r="D13" s="1">
-        <f>B13/10-5</f>
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
       <c r="E13" s="1">
-        <f>D13*C13</f>
+        <f t="shared" si="1"/>
         <v>13.5</v>
       </c>
     </row>
@@ -801,29 +798,29 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="2">
         <f>E14/C14</f>
         <v>4.1181818181818173</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="69" customHeight="1">
-      <c r="A16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="A16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>20</v>
@@ -846,11 +843,11 @@
         <v>2</v>
       </c>
       <c r="D18" s="1">
-        <f>B18/10-5</f>
+        <f t="shared" ref="D18:D35" si="2">B18/10-5</f>
         <v>4</v>
       </c>
       <c r="E18" s="1">
-        <f>D18*C18</f>
+        <f t="shared" ref="E18:E35" si="3">D18*C18</f>
         <v>8</v>
       </c>
     </row>
@@ -865,11 +862,11 @@
         <v>2</v>
       </c>
       <c r="D19" s="1">
-        <f>B19/10-5</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="E19" s="1">
-        <f>D19*C19</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -884,11 +881,11 @@
         <v>2</v>
       </c>
       <c r="D20" s="1">
-        <f>B20/10-5</f>
+        <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
       <c r="E20" s="1">
-        <f>D20*C20</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>
@@ -903,11 +900,11 @@
         <v>1</v>
       </c>
       <c r="D21" s="1">
-        <f>B21/10-5</f>
+        <f t="shared" si="2"/>
         <v>3.9000000000000004</v>
       </c>
       <c r="E21" s="1">
-        <f>D21*C21</f>
+        <f t="shared" si="3"/>
         <v>3.9000000000000004</v>
       </c>
     </row>
@@ -922,11 +919,11 @@
         <v>0.5</v>
       </c>
       <c r="D22" s="1">
-        <f>B22/10-5</f>
+        <f t="shared" si="2"/>
         <v>4.3000000000000007</v>
       </c>
       <c r="E22" s="1">
-        <f>D22*C22</f>
+        <f t="shared" si="3"/>
         <v>2.1500000000000004</v>
       </c>
     </row>
@@ -941,11 +938,11 @@
         <v>1</v>
       </c>
       <c r="D23" s="1">
-        <f>B23/10-5</f>
+        <f t="shared" si="2"/>
         <v>3.0999999999999996</v>
       </c>
       <c r="E23" s="1">
-        <f>D23*C23</f>
+        <f t="shared" si="3"/>
         <v>3.0999999999999996</v>
       </c>
     </row>
@@ -960,11 +957,11 @@
         <v>0.5</v>
       </c>
       <c r="D24" s="1">
-        <f>B24/10-5</f>
+        <f t="shared" si="2"/>
         <v>4.1999999999999993</v>
       </c>
       <c r="E24" s="1">
-        <f>D24*C24</f>
+        <f t="shared" si="3"/>
         <v>2.0999999999999996</v>
       </c>
     </row>
@@ -979,11 +976,11 @@
         <v>3</v>
       </c>
       <c r="D25" s="1">
-        <f>B25/10-5</f>
+        <f t="shared" si="2"/>
         <v>4.1999999999999993</v>
       </c>
       <c r="E25" s="1">
-        <f>D25*C25</f>
+        <f t="shared" si="3"/>
         <v>12.599999999999998</v>
       </c>
     </row>
@@ -998,11 +995,11 @@
         <v>3</v>
       </c>
       <c r="D26" s="1">
-        <f>B26/10-5</f>
+        <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
       <c r="E26" s="1">
-        <f>D26*C26</f>
+        <f t="shared" si="3"/>
         <v>10.5</v>
       </c>
     </row>
@@ -1017,11 +1014,11 @@
         <v>3</v>
       </c>
       <c r="D27" s="1">
-        <f>B27/10-5</f>
+        <f t="shared" si="2"/>
         <v>3.6999999999999993</v>
       </c>
       <c r="E27" s="1">
-        <f>D27*C27</f>
+        <f t="shared" si="3"/>
         <v>11.099999999999998</v>
       </c>
     </row>
@@ -1036,11 +1033,11 @@
         <v>3</v>
       </c>
       <c r="D28" s="1">
-        <f>B28/10-5</f>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
       <c r="E28" s="1">
-        <f>D28*C28</f>
+        <f t="shared" si="3"/>
         <v>13.5</v>
       </c>
     </row>
@@ -1055,11 +1052,11 @@
         <v>3</v>
       </c>
       <c r="D29" s="1">
-        <f>B29/10-5</f>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
       <c r="E29" s="1">
-        <f>D29*C29</f>
+        <f t="shared" si="3"/>
         <v>13.5</v>
       </c>
     </row>
@@ -1074,11 +1071,11 @@
         <v>3</v>
       </c>
       <c r="D30" s="1">
-        <f>B30/10-5</f>
+        <f t="shared" si="2"/>
         <v>3.9000000000000004</v>
       </c>
       <c r="E30" s="1">
-        <f>D30*C30</f>
+        <f t="shared" si="3"/>
         <v>11.700000000000001</v>
       </c>
     </row>
@@ -1093,11 +1090,11 @@
         <v>3</v>
       </c>
       <c r="D31" s="1">
-        <f>B31/10-5</f>
+        <f t="shared" si="2"/>
         <v>4.1999999999999993</v>
       </c>
       <c r="E31" s="1">
-        <f>D31*C31</f>
+        <f t="shared" si="3"/>
         <v>12.599999999999998</v>
       </c>
     </row>
@@ -1112,11 +1109,11 @@
         <v>3</v>
       </c>
       <c r="D32" s="1">
-        <f>B32/10-5</f>
+        <f t="shared" si="2"/>
         <v>4.3000000000000007</v>
       </c>
       <c r="E32" s="1">
-        <f>D32*C32</f>
+        <f t="shared" si="3"/>
         <v>12.900000000000002</v>
       </c>
     </row>
@@ -1131,11 +1128,11 @@
         <v>3</v>
       </c>
       <c r="D33" s="1">
-        <f>B33/10-5</f>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
       <c r="E33" s="1">
-        <f>D33*C33</f>
+        <f t="shared" si="3"/>
         <v>13.5</v>
       </c>
     </row>
@@ -1150,11 +1147,11 @@
         <v>3</v>
       </c>
       <c r="D34" s="1">
-        <f>B34/10-5</f>
+        <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
       <c r="E34" s="1">
-        <f>D34*C34</f>
+        <f t="shared" si="3"/>
         <v>10.5</v>
       </c>
     </row>
@@ -1169,11 +1166,11 @@
         <v>3</v>
       </c>
       <c r="D35" s="1">
-        <f>B35/10-5</f>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
       <c r="E35" s="1">
-        <f>D35*C35</f>
+        <f t="shared" si="3"/>
         <v>13.5</v>
       </c>
     </row>
@@ -1188,10 +1185,10 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="2">
         <f>E36/C36</f>
         <v>4.0511904761904756</v>
       </c>
@@ -1203,5 +1200,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/docs/certificate/GPA.xlsx
+++ b/docs/certificate/GPA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jtan1995/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jtan1995/tang-jay.github.io/static/certificate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6FDF26-72C7-E341-8731-6E83D903C33C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB56340-1259-894C-BBBF-90EB776FB55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23880" yWindow="1820" windowWidth="23880" windowHeight="16180" xr2:uid="{41D70B99-B963-0F4F-ACEE-960A91DA7C9B}"/>
   </bookViews>
@@ -35,22 +35,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
   <si>
-    <t>英语1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英语2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>中国特色社会主义理论与实践</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>自然辩证法概论（理科）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>高等概率论</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -135,7 +123,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>s所修专业学科CPA</t>
+    <t>所修专业学科CPA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语1（免修）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语2（免修）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自然辩证法概论</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -146,7 +146,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -178,6 +178,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -193,7 +209,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -201,13 +217,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -218,6 +243,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -543,44 +589,44 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="30.5" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" customWidth="1"/>
     <col min="2" max="5" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="44" customHeight="1">
-      <c r="A1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" s="1" customFormat="1">
-      <c r="A2" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:5" s="6" customFormat="1" ht="18">
+      <c r="A2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>18</v>
+      <c r="C2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1">
         <v>92</v>
@@ -599,7 +645,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1">
         <v>85</v>
@@ -618,7 +664,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1">
         <v>87</v>
@@ -637,7 +683,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1">
         <v>95</v>
@@ -656,7 +702,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1">
         <v>95</v>
@@ -675,7 +721,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1">
         <v>89</v>
@@ -694,7 +740,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1">
         <v>92</v>
@@ -713,7 +759,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1">
         <v>93</v>
@@ -732,7 +778,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1">
         <v>95</v>
@@ -751,7 +797,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1">
         <v>85</v>
@@ -770,7 +816,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B13" s="1">
         <v>95</v>
@@ -788,18 +834,21 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="C14" s="1">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10">
         <f>SUM(C3:C13)</f>
         <v>33</v>
       </c>
-      <c r="E14" s="1">
+      <c r="D14" s="10"/>
+      <c r="E14" s="10">
         <f>SUM(E3:E13)</f>
         <v>135.89999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="D15" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E15" s="2">
         <f>E14/C14</f>
@@ -807,167 +856,167 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="69" customHeight="1">
-      <c r="A16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="A16" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+    </row>
+    <row r="17" spans="1:5" s="8" customFormat="1" ht="18">
+      <c r="A17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>18</v>
+      <c r="C17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B18" s="1">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C18" s="1">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" ref="D18:D35" si="2">B18/10-5</f>
-        <v>4</v>
+        <f>B18/10-5</f>
+        <v>4.3000000000000007</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" ref="E18:E35" si="3">D18*C18</f>
-        <v>8</v>
+        <f>D18*C18</f>
+        <v>2.1500000000000004</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1">
+        <v>92</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D19" s="1">
+        <f>B19/10-5</f>
+        <v>4.1999999999999993</v>
+      </c>
+      <c r="E19" s="1">
+        <f>D19*C19</f>
+        <v>2.0999999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="1">
+        <v>89</v>
+      </c>
+      <c r="C20" s="1">
         <v>1</v>
       </c>
-      <c r="B19" s="1">
+      <c r="D20" s="1">
+        <f>B20/10-5</f>
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="E20" s="1">
+        <f>D20*C20</f>
+        <v>3.9000000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1">
+        <v>81</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <f>B21/10-5</f>
+        <v>3.0999999999999996</v>
+      </c>
+      <c r="E21" s="1">
+        <f>D21*C21</f>
+        <v>3.0999999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="1">
         <v>90</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C22" s="1">
         <v>2</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D22" s="1">
+        <f t="shared" ref="D22:D35" si="2">B22/10-5</f>
+        <v>4</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" ref="E22:E35" si="3">D22*C22</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="1">
+        <v>90</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E23" s="1">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1">
+        <v>85</v>
+      </c>
+      <c r="C24" s="1">
         <v>2</v>
       </c>
-      <c r="B20" s="1">
-        <v>85</v>
-      </c>
-      <c r="C20" s="1">
-        <v>2</v>
-      </c>
-      <c r="D20" s="1">
+      <c r="D24" s="1">
         <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E24" s="1">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="1">
-        <v>89</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1">
-        <f t="shared" si="2"/>
-        <v>3.9000000000000004</v>
-      </c>
-      <c r="E21" s="1">
-        <f t="shared" si="3"/>
-        <v>3.9000000000000004</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="1">
-        <v>93</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D22" s="1">
-        <f t="shared" si="2"/>
-        <v>4.3000000000000007</v>
-      </c>
-      <c r="E22" s="1">
-        <f t="shared" si="3"/>
-        <v>2.1500000000000004</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="1">
-        <v>81</v>
-      </c>
-      <c r="C23" s="1">
-        <v>1</v>
-      </c>
-      <c r="D23" s="1">
-        <f t="shared" si="2"/>
-        <v>3.0999999999999996</v>
-      </c>
-      <c r="E23" s="1">
-        <f t="shared" si="3"/>
-        <v>3.0999999999999996</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="1">
-        <v>92</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D24" s="1">
-        <f t="shared" si="2"/>
-        <v>4.1999999999999993</v>
-      </c>
-      <c r="E24" s="1">
-        <f t="shared" si="3"/>
-        <v>2.0999999999999996</v>
-      </c>
-    </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B25" s="1">
         <v>92</v>
@@ -986,7 +1035,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B26" s="1">
         <v>85</v>
@@ -1005,7 +1054,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B27" s="1">
         <v>87</v>
@@ -1024,7 +1073,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B28" s="1">
         <v>95</v>
@@ -1043,7 +1092,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B29" s="1">
         <v>95</v>
@@ -1062,7 +1111,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B30" s="1">
         <v>89</v>
@@ -1081,7 +1130,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B31" s="1">
         <v>92</v>
@@ -1100,7 +1149,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B32" s="1">
         <v>93</v>
@@ -1119,7 +1168,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B33" s="1">
         <v>95</v>
@@ -1138,7 +1187,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B34" s="1">
         <v>85</v>
@@ -1157,7 +1206,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B35" s="1">
         <v>95</v>
@@ -1175,22 +1224,25 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="C36" s="1">
-        <f>SUM(C18:C35)</f>
-        <v>42</v>
-      </c>
-      <c r="E36" s="1">
-        <f>SUM(E18:E35)</f>
-        <v>170.14999999999998</v>
+      <c r="A36" s="9"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10">
+        <f>SUM(C22:C35)</f>
+        <v>39</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10">
+        <f>SUM(E22:E35)</f>
+        <v>158.89999999999998</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="D37" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E37" s="2">
         <f>E36/C36</f>
-        <v>4.0511904761904756</v>
+        <v>4.0743589743589741</v>
       </c>
     </row>
   </sheetData>

--- a/docs/certificate/GPA.xlsx
+++ b/docs/certificate/GPA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jtan1995/tang-jay.github.io/static/certificate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB56340-1259-894C-BBBF-90EB776FB55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60A5698-4654-C240-A8D2-697856795713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23880" yWindow="1820" windowWidth="23880" windowHeight="16180" xr2:uid="{41D70B99-B963-0F4F-ACEE-960A91DA7C9B}"/>
   </bookViews>
@@ -123,10 +123,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>所修专业学科CPA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>英语1（免修）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -136,6 +132,10 @@
   </si>
   <si>
     <t>自然辩证法概论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所修专业学科GPA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -589,7 +589,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -600,7 +600,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="44" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -921,7 +921,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" s="1">
         <v>89</v>
@@ -959,7 +959,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="1">
         <v>90</v>
@@ -978,7 +978,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" s="1">
         <v>90</v>

--- a/docs/certificate/GPA.xlsx
+++ b/docs/certificate/GPA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jtan1995/tang-jay.github.io/static/certificate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60A5698-4654-C240-A8D2-697856795713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8E8598-B357-2B44-9639-01D914F36D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23880" yWindow="1820" windowWidth="23880" windowHeight="16180" xr2:uid="{41D70B99-B963-0F4F-ACEE-960A91DA7C9B}"/>
   </bookViews>
@@ -586,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFD5DEFA-6E65-5C46-84CE-21CF2F5440B2}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -864,7 +864,7 @@
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
     </row>
-    <row r="17" spans="1:5" s="8" customFormat="1" ht="18">
+    <row r="17" spans="1:8" s="8" customFormat="1" ht="18">
       <c r="A17" s="7" t="s">
         <v>19</v>
       </c>
@@ -881,7 +881,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -899,8 +899,19 @@
         <f>D18*C18</f>
         <v>2.1500000000000004</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>100</v>
+      </c>
+      <c r="G18">
+        <f>F18/10-5</f>
+        <v>5</v>
+      </c>
+      <c r="H18">
+        <f>G18*C18</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -918,8 +929,19 @@
         <f>D19*C19</f>
         <v>2.0999999999999996</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>100</v>
+      </c>
+      <c r="G19">
+        <f t="shared" ref="G19:G35" si="2">F19/10-5</f>
+        <v>5</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ref="H19:H35" si="3">G19*C19</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -937,8 +959,19 @@
         <f>D20*C20</f>
         <v>3.9000000000000004</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20">
+        <v>100</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -956,8 +989,19 @@
         <f>D21*C21</f>
         <v>3.0999999999999996</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21">
+        <v>100</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -968,15 +1012,26 @@
         <v>2</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" ref="D22:D35" si="2">B22/10-5</f>
+        <f t="shared" ref="D22:D35" si="4">B22/10-5</f>
         <v>4</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" ref="E22:E35" si="3">D22*C22</f>
+        <f t="shared" ref="E22:E35" si="5">D22*C22</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>100</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -987,15 +1042,26 @@
         <v>2</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>100</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -1006,15 +1072,26 @@
         <v>2</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.5</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24">
+        <v>100</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1025,15 +1102,26 @@
         <v>3</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.1999999999999993</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>12.599999999999998</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25">
+        <v>100</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1044,15 +1132,26 @@
         <v>3</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.5</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10.5</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26">
+        <v>100</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -1063,15 +1162,26 @@
         <v>3</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.6999999999999993</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>11.099999999999998</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>100</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -1082,15 +1192,26 @@
         <v>3</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.5</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>13.5</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28">
+        <v>100</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -1101,15 +1222,26 @@
         <v>3</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.5</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>13.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29">
+        <v>100</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -1120,15 +1252,26 @@
         <v>3</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.9000000000000004</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>11.700000000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30">
+        <v>100</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -1139,15 +1282,26 @@
         <v>3</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.1999999999999993</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>12.599999999999998</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31">
+        <v>100</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -1158,15 +1312,26 @@
         <v>3</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.3000000000000007</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>12.900000000000002</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32">
+        <v>100</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -1177,15 +1342,26 @@
         <v>3</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.5</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>13.5</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33">
+        <v>100</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -1196,15 +1372,26 @@
         <v>3</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.5</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10.5</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34">
+        <v>100</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>2</v>
       </c>
@@ -1215,15 +1402,26 @@
         <v>3</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.5</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>13.5</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>100</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="9"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10">
@@ -1235,8 +1433,12 @@
         <f>SUM(E22:E35)</f>
         <v>158.89999999999998</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="H36">
+        <f>SUM(H18:H35)</f>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="D37" s="3" t="s">
         <v>18</v>
       </c>
